--- a/client/customervisits2019.xlsx
+++ b/client/customervisits2019.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Pankajgupta.N\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky.lockwood\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8745" windowHeight="6165"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
   <si>
     <t>Start time</t>
   </si>
@@ -68,303 +68,142 @@
     <t>anonymous</t>
   </si>
   <si>
-    <t>Eiichiro Fujimura</t>
-  </si>
-  <si>
     <t>Fujitsu</t>
   </si>
   <si>
-    <t>Senior Director, Global (GTM and Alliance) Strategy, Middleware Business Unit</t>
-  </si>
-  <si>
-    <t>efujimura@jp.fujitsu.com</t>
-  </si>
-  <si>
     <t>Visit to lab was part of HCL tour ;</t>
   </si>
   <si>
-    <t>LSH - Smart Clinical Trials (Remote Patient Monitoring - RPM);Supply Chain - Cold Chain Blockchain solution;</t>
-  </si>
-  <si>
-    <t>It was a very interesting tour. It would have been more beneficial (for my interest) if we had more time to go over LSH related activities.</t>
-  </si>
-  <si>
-    <t>Team from FAST (Australia)</t>
-  </si>
-  <si>
-    <t>sarah maston</t>
-  </si>
-  <si>
-    <t>microsoft</t>
-  </si>
-  <si>
-    <t>architect</t>
-  </si>
-  <si>
-    <t>samaston@microsoft.com</t>
-  </si>
-  <si>
     <t>Get an understanding of the HCL's IoT offering;</t>
   </si>
   <si>
-    <t>LSH - Smart Clinical Trials (Remote Patient Monitoring - RPM);E&amp;U -Active Grid Management (AGM);Smart Worker Solution ;Remote Device Management Platform - ReServ;</t>
-  </si>
-  <si>
-    <t>it was very impressive.</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>John Ozkurt</t>
-  </si>
-  <si>
-    <t>T-Mobile</t>
-  </si>
-  <si>
-    <t>Business Development Manager - IOT</t>
-  </si>
-  <si>
-    <t>john.ozkurt@t-mobile.com</t>
-  </si>
-  <si>
     <t>Get an understanding of the HCL's IoT offering;Looking for IoT to solve specific business needs;Visit to lab was part of HCL tour ;</t>
   </si>
   <si>
-    <t>LSH - Smart Clinical Trials (Remote Patient Monitoring - RPM);LSH - Disease Management (RPM);LSH - Drug Serialization;E&amp;U -Active Grid Management (AGM);Supply Chain - Asset Tracking ( Outdoor) ;Supply Chain - Cold Chain Blockchain solution;Smart Worker Solution ;Remote Device Management Platform - ReServ;IoT Edge ( Gateway , Instrumentation);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T-Mobile cellular IOT connectivity would have enhanced your use cases and demo environment. </t>
-  </si>
-  <si>
-    <t>My team; Device, Sales Engineering, Management, and Product teams</t>
-  </si>
-  <si>
-    <t>Paresh Vankar</t>
-  </si>
-  <si>
-    <t>HCL</t>
-  </si>
-  <si>
-    <t>Head of Marketing - FS and Next Gen Tech</t>
-  </si>
-  <si>
-    <t>pvankar@hcl.com</t>
-  </si>
-  <si>
-    <t>LSH - Smart Clinical Trials (Remote Patient Monitoring - RPM);Manufacturing - Overall Equipment Efficiency Analytics;Manufacturing - Predictive Maintenance;</t>
-  </si>
-  <si>
-    <t>Use cases from industries other than LS and Manufacturing</t>
-  </si>
-  <si>
-    <t>Shweta Rawat</t>
-  </si>
-  <si>
-    <t>Pete Bernard</t>
-  </si>
-  <si>
-    <t>Microsoft</t>
-  </si>
-  <si>
-    <t>Principal Group Program Manager</t>
-  </si>
-  <si>
-    <t>pbernard@microsoft.com</t>
-  </si>
-  <si>
-    <t>IoT Edge ( Gateway , Instrumentation);</t>
-  </si>
-  <si>
-    <t>No particular gaps</t>
-  </si>
-  <si>
-    <t>Ruston Panabaker</t>
-  </si>
-  <si>
-    <t>Srinivasa Chinimilli</t>
-  </si>
-  <si>
-    <t>T-Mobile USA</t>
-  </si>
-  <si>
-    <t>Director, Engineering</t>
-  </si>
-  <si>
-    <t>srinivasa.chinimilli@t-mobile.com</t>
-  </si>
-  <si>
-    <t>Smart Worker Solution ;Remote Device Management Platform - ReServ;IoT Edge ( Gateway , Instrumentation);</t>
-  </si>
-  <si>
-    <t>display of something that is deployed in production as a use case and provide some commercial data.
-But overall it is a good presentation and walk through of the capabilities.</t>
-  </si>
-  <si>
-    <t>I think my team has already visited.</t>
-  </si>
-  <si>
-    <t>Laura McCrae</t>
-  </si>
-  <si>
-    <t>Snohomish PUD</t>
-  </si>
-  <si>
-    <t>Analytics Lead</t>
-  </si>
-  <si>
-    <t>lmmccrae@snopud.com</t>
-  </si>
-  <si>
-    <t>E&amp;U -Active Grid Management (AGM);Manufacturing - Predictive Maintenance;Supply Chain - Asset Tracking ( Indoor) ;Supply Chain - Asset Tracking ( Outdoor) ;Remote Device Management Platform - ReServ;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nothing - the demonstrations and conversation were all relevant in different ways. </t>
-  </si>
-  <si>
-    <t>Our warehouse management team</t>
-  </si>
-  <si>
-    <t>Divya Muralidhar</t>
-  </si>
-  <si>
-    <t>Mgr, System Architecture Engg</t>
-  </si>
-  <si>
-    <t>divya.muralidhar2@t-mobile.com</t>
-  </si>
-  <si>
-    <t>Looking for IoT to solve specific business needs;</t>
-  </si>
-  <si>
     <t>Supply Chain - Asset Tracking ( Outdoor) ;</t>
   </si>
   <si>
-    <t>Tour was perfect ! Thank you !</t>
-  </si>
-  <si>
-    <t>Abhi Elumalai
-Sudhanshu Pandey
-Anupama Malireddy</t>
-  </si>
-  <si>
-    <t>Shanne Noble</t>
-  </si>
-  <si>
-    <t>Microsofot</t>
-  </si>
-  <si>
-    <t>Specialist Partner Development Manager for Data, AI, IOT- One commercial Partner org,   (OCP)</t>
-  </si>
-  <si>
-    <t>snoble@microsoft.com</t>
-  </si>
-  <si>
-    <t>LSH - Smart Clinical Trials (Remote Patient Monitoring - RPM);LSH - Disease Management (RPM);LSH - Drug Serialization;E&amp;U -Active Grid Management (AGM);Manufacturing - Overall Equipment Efficiency Analytics;Manufacturing - Predictive Maintenance;Manufacturing - Product Quality;Manufacturing - AR Field Services;Supply Chain - Asset Tracking ( Indoor) ;Supply Chain - Asset Tracking ( Outdoor) ;Supply Chain - Cold Chain Blockchain solution;Smart Worker Solution ;Remote Device Management Platform - ReServ;IoT RUN ;IoT Edge ( Gateway , Instrumentation);IoT Data Platform ( Pangea , PAS);</t>
-  </si>
-  <si>
-    <t>Honestly, I can't even think of anything.  It was perfect!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anders Swartjes, WW Global BlackBelt Lead (field sales specialists) for IOT and his key GBB's.  From a field sales perspective he's he most important contact a this point. </t>
-  </si>
-  <si>
-    <t>Akseli Leppanen</t>
-  </si>
-  <si>
-    <t>Azure IoT PM</t>
-  </si>
-  <si>
-    <t>aksell@microsoft.com</t>
-  </si>
-  <si>
-    <t>Visit was excellent, great work!</t>
-  </si>
-  <si>
-    <t>need to discuss with team but some people in our engineering team would definitely benefit from a visit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chris Hughes :  Head of Commercial and Procurement ; Rita Bullivant : Head of Cadent Solution Delivery ; Philippa Parker : SMI Workstream lead Solution Delivery ; Marcus Dainter :    BAU Project -Programme Manager </t>
-  </si>
-  <si>
-    <t>Cadent Gas</t>
-  </si>
-  <si>
-    <t>Manufacturing - Predictive Maintenance;Manufacturing - AR Field Services;Supply Chain - Cold Chain Blockchain solution;Smart Worker Solution ;Remote Device Management Platform - ReServ;</t>
-  </si>
-  <si>
-    <t>Visit was great, lots of thought on how the IoT usecases could relate to our business.</t>
-  </si>
-  <si>
-    <t>Rita Bullivants Catalyst team and the Enterprise Architects under James Harvey</t>
-  </si>
-  <si>
-    <t>Matt Gafencu</t>
-  </si>
-  <si>
-    <t>ASP Johnson and Johnson</t>
-  </si>
-  <si>
-    <t>SW Manager &amp; Strategist</t>
-  </si>
-  <si>
-    <t>mgafencu@its.jnj.com</t>
-  </si>
-  <si>
-    <t>IoT CarePlatform and PTC;Get an understanding of the HCL's IoT offering;Looking for IoT to solve specific business needs;</t>
-  </si>
-  <si>
-    <t>LSH - Drug Serialization;Remote Device Management Platform - ReServ;IoT Edge ( Gateway , Instrumentation);</t>
-  </si>
-  <si>
-    <t>Archie Quan</t>
-  </si>
-  <si>
-    <t>sachio takao</t>
-  </si>
-  <si>
-    <t>fujitsu</t>
-  </si>
-  <si>
-    <t>tech research &amp; biz dev</t>
-  </si>
-  <si>
-    <t>sachio.takao@us.fujitsu.com</t>
-  </si>
-  <si>
-    <t>Supply Chain - Asset Tracking ( Indoor) ;Supply Chain - Asset Tracking ( Outdoor) ;Smart Worker Solution ;IoT Edge ( Gateway , Instrumentation);</t>
-  </si>
-  <si>
-    <t>add more technical info together in the case
-show architecture, system block</t>
-  </si>
-  <si>
-    <t>Saito, Takeda, Fujii, Hama, Tamura</t>
-  </si>
-  <si>
-    <t>Hajime Takei</t>
-  </si>
-  <si>
-    <t>KonicaMinolta</t>
-  </si>
-  <si>
-    <t>R&amp;D</t>
-  </si>
-  <si>
-    <t>hajime.takei@konicaminolta.com</t>
-  </si>
-  <si>
-    <t>Get an understanding of the HCL's IoT offering;Looking for IoT to solve specific business needs;</t>
-  </si>
-  <si>
-    <t>LSH - Disease Management (RPM);Manufacturing - Overall Equipment Efficiency Analytics;Manufacturing - Predictive Maintenance;Manufacturing - AR Field Services;Smart Worker Solution ;</t>
-  </si>
-  <si>
-    <t>Utilize the predict maintenance solution to our Inkjet Printer System.
-Collaborate our SPS solution with HCL technology</t>
-  </si>
-  <si>
-    <t>Tom Taiko</t>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Kurachi san</t>
+  </si>
+  <si>
+    <t>Director</t>
+  </si>
+  <si>
+    <t>aditya_sha@hcl.com</t>
+  </si>
+  <si>
+    <t>Manufacturing - Predictive Maintenance;Smart Worker Solution ;Remote Device Management Platform - ReServ;IoT Edge ( Gateway , Instrumentation);</t>
+  </si>
+  <si>
+    <t>the experience was overall good</t>
+  </si>
+  <si>
+    <t>Anirudh Koduganti</t>
+  </si>
+  <si>
+    <t>HCL Technologies Limited</t>
+  </si>
+  <si>
+    <t>Associate Manager</t>
+  </si>
+  <si>
+    <t>kodugantia@hcl.com</t>
+  </si>
+  <si>
+    <t>Manufacturing - Overall Equipment Efficiency Analytics;Manufacturing - Predictive Maintenance;Manufacturing - AR Field Services;Supply Chain - Asset Tracking ( Outdoor) ;Smart Worker Solution ;Remote Device Management Platform - ReServ;IoT RUN ;IoT Data Platform ( Pangea , PAS);</t>
+  </si>
+  <si>
+    <t>The visit experience can be enhanced by customizing the demos to be more specific to the customer's interests. For example, for a visit from an Aerospace customer, we should show the applicability of demos and use cases in the Aviation Sector. We need to have more use cases specific to the Aerospace and Aviation Sector.</t>
+  </si>
+  <si>
+    <t>Visits are scheduled with two weeks notice so I can't give names in advance.</t>
+  </si>
+  <si>
+    <t>Paul Littlefair</t>
+  </si>
+  <si>
+    <t>Livestock Improvement Corporation NZ</t>
+  </si>
+  <si>
+    <t>CIO</t>
+  </si>
+  <si>
+    <t>Paul.Litlefair@lic.co.nz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relevant case studies in Agri Business and Livestock Improvement </t>
+  </si>
+  <si>
+    <t>Abhishek to co-ordinate.</t>
+  </si>
+  <si>
+    <t>Merlin Schwaiger</t>
+  </si>
+  <si>
+    <t>HCL PowerObjects</t>
+  </si>
+  <si>
+    <t>Sales Enablement</t>
+  </si>
+  <si>
+    <t>merlin.s@hcl.com</t>
+  </si>
+  <si>
+    <t>Considering ways to help each other;Get an understanding of the HCL's IoT offering;</t>
+  </si>
+  <si>
+    <t>Manufacturing - Overall Equipment Efficiency Analytics;Manufacturing - Predictive Maintenance;Manufacturing - AR Field Services;Supply Chain - Asset Tracking ( Indoor) ;Supply Chain - Asset Tracking ( Outdoor) ;Smart Worker Solution ;Remote Device Management Platform - ReServ;</t>
+  </si>
+  <si>
+    <t>Hank was a bit hard to hear</t>
+  </si>
+  <si>
+    <t>We're all HCL</t>
+  </si>
+  <si>
+    <t>David Shaw</t>
+  </si>
+  <si>
+    <t>The Boeing Company</t>
+  </si>
+  <si>
+    <t>Senior Enterprise Architect</t>
+  </si>
+  <si>
+    <t>david.shaw5@boeing.com</t>
+  </si>
+  <si>
+    <t>Manufacturing - Predictive Maintenance;Supply Chain - Asset Tracking ( Indoor) ;Supply Chain - Asset Tracking ( Outdoor) ;Supply Chain - Cold Chain Blockchain solution;Smart Worker Solution ;IoT Edge ( Gateway , Instrumentation);</t>
+  </si>
+  <si>
+    <t>Visit was pleasantly knowledgeable, but urge to better understand vision of architecture.</t>
+  </si>
+  <si>
+    <t>A2R leadership</t>
+  </si>
+  <si>
+    <t>Jon Brock</t>
+  </si>
+  <si>
+    <t>Desert Sky Group, LLC</t>
+  </si>
+  <si>
+    <t>President</t>
+  </si>
+  <si>
+    <t>jbrock@desertskygroup.com</t>
+  </si>
+  <si>
+    <t>E&amp;U -Active Grid Management (AGM);Manufacturing - Overall Equipment Efficiency Analytics;Manufacturing - Predictive Maintenance;Supply Chain - Asset Tracking ( Indoor) ;Supply Chain - Asset Tracking ( Outdoor) ;Smart Worker Solution ;IoT RUN ;</t>
+  </si>
+  <si>
+    <t>Possibly a live AR/VR demo with headset...</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -465,8 +304,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M15" totalsRowShown="0">
-  <autoFilter ref="A1:M15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M7" totalsRowShown="0">
+  <autoFilter ref="A1:M7"/>
   <tableColumns count="13">
     <tableColumn id="1" name="Start time" dataDxfId="12"/>
     <tableColumn id="2" name="Completion time" dataDxfId="11"/>
@@ -783,15 +622,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="13" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" customWidth="1"/>
+    <col min="5" max="13" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -837,77 +678,77 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43307.349004629599</v>
+        <v>43529.054988425902</v>
       </c>
       <c r="B2" s="1">
-        <v>43307.352997685201</v>
+        <v>43529.078553240703</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="M2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43308.566516203697</v>
+        <v>43532.0131944444</v>
       </c>
       <c r="B3" s="1">
-        <v>43308.5793402778</v>
+        <v>43532.0177430556</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M3">
         <v>5</v>
@@ -915,32 +756,32 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43321.5831481481</v>
+        <v>43533.202499999999</v>
       </c>
       <c r="B4" s="1">
-        <v>43321.5856712963</v>
+        <v>43533.204282407401</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>36</v>
@@ -954,10 +795,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>43451.614374999997</v>
+        <v>43536.480995370403</v>
       </c>
       <c r="B5" s="1">
-        <v>43451.654409722199</v>
+        <v>43536.483043981498</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
@@ -976,55 +817,55 @@
         <v>41</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>43451.662222222199</v>
+        <v>43572.503935185203</v>
       </c>
       <c r="B6" s="1">
-        <v>43452.508865740703</v>
+        <v>43581.613506944399</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M6">
         <v>5</v>
@@ -1032,352 +873,40 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43452.613668981503</v>
+        <v>43581.613599536999</v>
       </c>
       <c r="B7" s="1">
-        <v>43452.6156134259</v>
+        <v>43584.585358796299</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>43452.616944444402</v>
-      </c>
-      <c r="B8" s="1">
-        <v>43453.438703703701</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>43453.4388078704</v>
-      </c>
-      <c r="B9" s="1">
-        <v>43453.700949074097</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>43469.417013888902</v>
-      </c>
-      <c r="B10" s="1">
-        <v>43481.459641203699</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="M10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>43481.459687499999</v>
-      </c>
-      <c r="B11" s="1">
-        <v>43481.460729166698</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="M11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>43482.115694444401</v>
-      </c>
-      <c r="B12" s="1">
-        <v>43482.160335648099</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="M12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>43481.730405092603</v>
-      </c>
-      <c r="B13" s="1">
-        <v>43493.502013888901</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="M13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>43494.482175925899</v>
-      </c>
-      <c r="B14" s="1">
-        <v>43496.492337962998</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="M14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>43499.503877314797</v>
-      </c>
-      <c r="B15" s="1">
-        <v>43499.507187499999</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="M15">
         <v>5</v>
       </c>
     </row>
